--- a/PARAFACToyProblem/nway320_exchange/nway320 exchange/ToyProblemData3D_80%missing.xlsx
+++ b/PARAFACToyProblem/nway320_exchange/nway320 exchange/ToyProblemData3D_80%missing.xlsx
@@ -19,7 +19,619 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
+  <si>
+    <t>Factors1</t>
+  </si>
+  <si>
+    <t>Factors2</t>
+  </si>
+  <si>
+    <t>Factors3</t>
+  </si>
+  <si>
+    <t>Factors4</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>Var5</t>
+  </si>
+  <si>
+    <t>Var6</t>
+  </si>
+  <si>
+    <t>Var7</t>
+  </si>
+  <si>
+    <t>Var8</t>
+  </si>
+  <si>
+    <t>Var9</t>
+  </si>
+  <si>
+    <t>Var10</t>
+  </si>
+  <si>
+    <t>Var11</t>
+  </si>
+  <si>
+    <t>Var12</t>
+  </si>
+  <si>
+    <t>Var13</t>
+  </si>
+  <si>
+    <t>Var14</t>
+  </si>
+  <si>
+    <t>Var15</t>
+  </si>
+  <si>
+    <t>Var16</t>
+  </si>
+  <si>
+    <t>Var17</t>
+  </si>
+  <si>
+    <t>Var18</t>
+  </si>
+  <si>
+    <t>Var19</t>
+  </si>
+  <si>
+    <t>Var20</t>
+  </si>
+  <si>
+    <t>Var21</t>
+  </si>
+  <si>
+    <t>Var22</t>
+  </si>
+  <si>
+    <t>Var23</t>
+  </si>
+  <si>
+    <t>Var24</t>
+  </si>
+  <si>
+    <t>Var25</t>
+  </si>
+  <si>
+    <t>Var26</t>
+  </si>
+  <si>
+    <t>Var27</t>
+  </si>
+  <si>
+    <t>Var28</t>
+  </si>
+  <si>
+    <t>Var29</t>
+  </si>
+  <si>
+    <t>Var30</t>
+  </si>
+  <si>
+    <t>Var31</t>
+  </si>
+  <si>
+    <t>Var32</t>
+  </si>
+  <si>
+    <t>Var33</t>
+  </si>
+  <si>
+    <t>Var34</t>
+  </si>
+  <si>
+    <t>Var35</t>
+  </si>
+  <si>
+    <t>Var36</t>
+  </si>
+  <si>
+    <t>Var37</t>
+  </si>
+  <si>
+    <t>Var38</t>
+  </si>
+  <si>
+    <t>Var39</t>
+  </si>
+  <si>
+    <t>Var40</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>Var5</t>
+  </si>
+  <si>
+    <t>Var6</t>
+  </si>
+  <si>
+    <t>Var7</t>
+  </si>
+  <si>
+    <t>Var8</t>
+  </si>
+  <si>
+    <t>Var9</t>
+  </si>
+  <si>
+    <t>Var10</t>
+  </si>
+  <si>
+    <t>Var11</t>
+  </si>
+  <si>
+    <t>Var12</t>
+  </si>
+  <si>
+    <t>Var13</t>
+  </si>
+  <si>
+    <t>Var14</t>
+  </si>
+  <si>
+    <t>Var15</t>
+  </si>
+  <si>
+    <t>Var16</t>
+  </si>
+  <si>
+    <t>Var17</t>
+  </si>
+  <si>
+    <t>Var18</t>
+  </si>
+  <si>
+    <t>Var19</t>
+  </si>
+  <si>
+    <t>Var20</t>
+  </si>
+  <si>
+    <t>Var21</t>
+  </si>
+  <si>
+    <t>Var22</t>
+  </si>
+  <si>
+    <t>Var23</t>
+  </si>
+  <si>
+    <t>Var24</t>
+  </si>
+  <si>
+    <t>Var25</t>
+  </si>
+  <si>
+    <t>Var26</t>
+  </si>
+  <si>
+    <t>Var27</t>
+  </si>
+  <si>
+    <t>Var28</t>
+  </si>
+  <si>
+    <t>Var29</t>
+  </si>
+  <si>
+    <t>Var30</t>
+  </si>
+  <si>
+    <t>Var31</t>
+  </si>
+  <si>
+    <t>Var32</t>
+  </si>
+  <si>
+    <t>Var33</t>
+  </si>
+  <si>
+    <t>Var34</t>
+  </si>
+  <si>
+    <t>Var35</t>
+  </si>
+  <si>
+    <t>Var36</t>
+  </si>
+  <si>
+    <t>Var37</t>
+  </si>
+  <si>
+    <t>Var38</t>
+  </si>
+  <si>
+    <t>Var39</t>
+  </si>
+  <si>
+    <t>Var40</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>Var5</t>
+  </si>
+  <si>
+    <t>Var6</t>
+  </si>
+  <si>
+    <t>Var7</t>
+  </si>
+  <si>
+    <t>Var8</t>
+  </si>
+  <si>
+    <t>Var9</t>
+  </si>
+  <si>
+    <t>Var10</t>
+  </si>
+  <si>
+    <t>Var11</t>
+  </si>
+  <si>
+    <t>Var12</t>
+  </si>
+  <si>
+    <t>Var13</t>
+  </si>
+  <si>
+    <t>Var14</t>
+  </si>
+  <si>
+    <t>Var15</t>
+  </si>
+  <si>
+    <t>Var16</t>
+  </si>
+  <si>
+    <t>Var17</t>
+  </si>
+  <si>
+    <t>Var18</t>
+  </si>
+  <si>
+    <t>Var19</t>
+  </si>
+  <si>
+    <t>Var20</t>
+  </si>
+  <si>
+    <t>Var21</t>
+  </si>
+  <si>
+    <t>Var22</t>
+  </si>
+  <si>
+    <t>Var23</t>
+  </si>
+  <si>
+    <t>Var24</t>
+  </si>
+  <si>
+    <t>Var25</t>
+  </si>
+  <si>
+    <t>Var26</t>
+  </si>
+  <si>
+    <t>Var27</t>
+  </si>
+  <si>
+    <t>Var28</t>
+  </si>
+  <si>
+    <t>Var29</t>
+  </si>
+  <si>
+    <t>Var30</t>
+  </si>
+  <si>
+    <t>Var31</t>
+  </si>
+  <si>
+    <t>Var32</t>
+  </si>
+  <si>
+    <t>Var33</t>
+  </si>
+  <si>
+    <t>Var34</t>
+  </si>
+  <si>
+    <t>Var35</t>
+  </si>
+  <si>
+    <t>Var36</t>
+  </si>
+  <si>
+    <t>Var37</t>
+  </si>
+  <si>
+    <t>Var38</t>
+  </si>
+  <si>
+    <t>Var39</t>
+  </si>
+  <si>
+    <t>Var40</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>Var5</t>
+  </si>
+  <si>
+    <t>Var6</t>
+  </si>
+  <si>
+    <t>Var7</t>
+  </si>
+  <si>
+    <t>Var8</t>
+  </si>
+  <si>
+    <t>Var9</t>
+  </si>
+  <si>
+    <t>Var10</t>
+  </si>
+  <si>
+    <t>Var11</t>
+  </si>
+  <si>
+    <t>Var12</t>
+  </si>
+  <si>
+    <t>Var13</t>
+  </si>
+  <si>
+    <t>Var14</t>
+  </si>
+  <si>
+    <t>Var15</t>
+  </si>
+  <si>
+    <t>Var16</t>
+  </si>
+  <si>
+    <t>Var17</t>
+  </si>
+  <si>
+    <t>Var18</t>
+  </si>
+  <si>
+    <t>Var19</t>
+  </si>
+  <si>
+    <t>Var20</t>
+  </si>
+  <si>
+    <t>Var21</t>
+  </si>
+  <si>
+    <t>Var22</t>
+  </si>
+  <si>
+    <t>Var23</t>
+  </si>
+  <si>
+    <t>Var24</t>
+  </si>
+  <si>
+    <t>Var25</t>
+  </si>
+  <si>
+    <t>Var26</t>
+  </si>
+  <si>
+    <t>Var27</t>
+  </si>
+  <si>
+    <t>Var28</t>
+  </si>
+  <si>
+    <t>Var29</t>
+  </si>
+  <si>
+    <t>Var30</t>
+  </si>
+  <si>
+    <t>Var31</t>
+  </si>
+  <si>
+    <t>Var32</t>
+  </si>
+  <si>
+    <t>Var33</t>
+  </si>
+  <si>
+    <t>Var34</t>
+  </si>
+  <si>
+    <t>Var35</t>
+  </si>
+  <si>
+    <t>Var36</t>
+  </si>
+  <si>
+    <t>Var37</t>
+  </si>
+  <si>
+    <t>Var38</t>
+  </si>
+  <si>
+    <t>Var39</t>
+  </si>
+  <si>
+    <t>Var40</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>Var5</t>
+  </si>
+  <si>
+    <t>Var6</t>
+  </si>
+  <si>
+    <t>Var7</t>
+  </si>
+  <si>
+    <t>Var8</t>
+  </si>
+  <si>
+    <t>Var9</t>
+  </si>
+  <si>
+    <t>Var10</t>
+  </si>
+  <si>
+    <t>Var11</t>
+  </si>
+  <si>
+    <t>Var12</t>
+  </si>
+  <si>
+    <t>Var13</t>
+  </si>
+  <si>
+    <t>Var14</t>
+  </si>
+  <si>
+    <t>Var15</t>
+  </si>
+  <si>
+    <t>Var16</t>
+  </si>
+  <si>
+    <t>Var17</t>
+  </si>
+  <si>
+    <t>Var18</t>
+  </si>
+  <si>
+    <t>Var19</t>
+  </si>
+  <si>
+    <t>Var20</t>
+  </si>
+  <si>
+    <t>Var21</t>
+  </si>
+  <si>
+    <t>Var22</t>
+  </si>
+  <si>
+    <t>Var23</t>
+  </si>
+  <si>
+    <t>Var24</t>
+  </si>
+  <si>
+    <t>Var25</t>
+  </si>
+  <si>
+    <t>Var26</t>
+  </si>
+  <si>
+    <t>Var27</t>
+  </si>
+  <si>
+    <t>Var28</t>
+  </si>
+  <si>
+    <t>Var29</t>
+  </si>
+  <si>
+    <t>Var30</t>
+  </si>
+  <si>
+    <t>Var31</t>
+  </si>
+  <si>
+    <t>Var32</t>
+  </si>
+  <si>
+    <t>Var33</t>
+  </si>
+  <si>
+    <t>Var34</t>
+  </si>
+  <si>
+    <t>Var35</t>
+  </si>
+  <si>
+    <t>Var36</t>
+  </si>
+  <si>
+    <t>Var37</t>
+  </si>
+  <si>
+    <t>Var38</t>
+  </si>
+  <si>
+    <t>Var39</t>
+  </si>
+  <si>
+    <t>Var40</t>
+  </si>
   <si>
     <t>Factors1</t>
   </si>
@@ -651,7 +1263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -665,11 +1277,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -677,6 +1295,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,16 +1321,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>206</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
@@ -832,124 +1456,124 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>9</v>
+        <v>213</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>43</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
@@ -2767,124 +3391,124 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>52</v>
+        <v>256</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>54</v>
+        <v>258</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>57</v>
+        <v>261</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>58</v>
+        <v>262</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>66</v>
+        <v>270</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>71</v>
+        <v>275</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>83</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
@@ -4648,124 +5272,124 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>288</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>289</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>86</v>
+        <v>290</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>87</v>
+        <v>291</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>88</v>
+        <v>292</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>293</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>295</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>92</v>
+        <v>296</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>95</v>
+        <v>299</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>97</v>
+        <v>301</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>98</v>
+        <v>302</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>99</v>
+        <v>303</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>100</v>
+        <v>304</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>101</v>
+        <v>305</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>102</v>
+        <v>306</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>103</v>
+        <v>307</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>104</v>
+        <v>308</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>105</v>
+        <v>309</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>107</v>
+        <v>311</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>109</v>
+        <v>313</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>110</v>
+        <v>314</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>111</v>
+        <v>315</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>112</v>
+        <v>316</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>113</v>
+        <v>317</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>114</v>
+        <v>318</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>115</v>
+        <v>319</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>117</v>
+        <v>321</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>119</v>
+        <v>323</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>120</v>
+        <v>324</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>121</v>
+        <v>325</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>122</v>
+        <v>326</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>123</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
@@ -6603,124 +7227,124 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>124</v>
+        <v>328</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>125</v>
+        <v>329</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>126</v>
+        <v>330</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>127</v>
+        <v>331</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>129</v>
+        <v>333</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>132</v>
+        <v>336</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>133</v>
+        <v>337</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>134</v>
+        <v>338</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>135</v>
+        <v>339</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>136</v>
+        <v>340</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>137</v>
+        <v>341</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>138</v>
+        <v>342</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>139</v>
+        <v>343</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>140</v>
+        <v>344</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>141</v>
+        <v>345</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>142</v>
+        <v>346</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>143</v>
+        <v>347</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>144</v>
+        <v>348</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>145</v>
+        <v>349</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>147</v>
+        <v>351</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>148</v>
+        <v>352</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>149</v>
+        <v>353</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>150</v>
+        <v>354</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>152</v>
+        <v>356</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>153</v>
+        <v>357</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>154</v>
+        <v>358</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>155</v>
+        <v>359</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>156</v>
+        <v>360</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>157</v>
+        <v>361</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>158</v>
+        <v>362</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>159</v>
+        <v>363</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>160</v>
+        <v>364</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>161</v>
+        <v>365</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>162</v>
+        <v>366</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>163</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2">
@@ -8520,124 +9144,124 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>164</v>
+        <v>368</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>165</v>
+        <v>369</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>166</v>
+        <v>370</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>167</v>
+        <v>371</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>168</v>
+        <v>372</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>169</v>
+        <v>373</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>170</v>
+        <v>374</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>171</v>
+        <v>375</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>172</v>
+        <v>376</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>173</v>
+        <v>377</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>176</v>
+        <v>380</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>177</v>
+        <v>381</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>178</v>
+        <v>382</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>179</v>
+        <v>383</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>180</v>
+        <v>384</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>181</v>
+        <v>385</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>182</v>
+        <v>386</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>183</v>
+        <v>387</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>184</v>
+        <v>388</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>185</v>
+        <v>389</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>186</v>
+        <v>390</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>187</v>
+        <v>391</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>188</v>
+        <v>392</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>189</v>
+        <v>393</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>190</v>
+        <v>394</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>191</v>
+        <v>395</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>192</v>
+        <v>396</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>193</v>
+        <v>397</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>194</v>
+        <v>398</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>195</v>
+        <v>399</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>196</v>
+        <v>400</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>197</v>
+        <v>401</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>198</v>
+        <v>402</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>199</v>
+        <v>403</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>201</v>
+        <v>405</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>202</v>
+        <v>406</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>203</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2">
